--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>こんにちは、Excel!</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>すでに何回目かの変更</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,11 @@
           <t>すでに何回目かの変更</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>だいぶ流れに慣れてきただろうか</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
